--- a/计划.xlsx
+++ b/计划.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95">
   <si>
     <t>时间</t>
   </si>
@@ -311,16 +311,34 @@
     </r>
   </si>
   <si>
-    <t>activemq ,rabbitmq</t>
-  </si>
-  <si>
-    <t>springboot 微信点餐系统，看完记录知识点，过一遍有个概念</t>
+    <t>任务</t>
+  </si>
+  <si>
+    <t>要求</t>
+  </si>
+  <si>
+    <t>结果</t>
+  </si>
+  <si>
+    <t>activemq ,rabbitmq kafka</t>
+  </si>
+  <si>
+    <t>做记录，会用  原理</t>
+  </si>
+  <si>
+    <t>springboot 微信点餐系统，</t>
+  </si>
+  <si>
+    <t>看完记录知识点，过一遍有个概念</t>
   </si>
   <si>
     <t xml:space="preserve">redis 用法 注重缓存与spring boot的学习 </t>
   </si>
   <si>
-    <t xml:space="preserve"> spring 底层源码 看完30% 即可 </t>
+    <t>落实细节，最后一次，以后不会再看</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 看完30% 即可 </t>
   </si>
 </sst>
 </file>
@@ -328,12 +346,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -350,6 +368,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="16"/>
       <color theme="1"/>
@@ -366,13 +405,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="26"/>
       <color theme="1"/>
@@ -403,6 +435,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -410,6 +472,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -419,6 +529,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -432,14 +549,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -449,63 +558,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -519,27 +572,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
@@ -548,7 +580,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -557,6 +589,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -581,7 +625,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,31 +763,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,155 +799,88 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -792,6 +895,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -815,37 +933,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -853,8 +941,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -869,15 +957,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -886,10 +965,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -898,170 +977,191 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1074,19 +1174,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1095,10 +1195,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1458,18 +1558,18 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" ht="18.75" spans="2:11">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
     </row>
     <row r="2" spans="2:10">
       <c r="B2" t="s">
@@ -1490,15 +1590,15 @@
       <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="21" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1524,12 +1624,12 @@
       <c r="H6" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B7">
@@ -1553,21 +1653,21 @@
       <c r="H7">
         <v>5</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="21">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1596,7 +1696,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C1" t="s">
@@ -1604,7 +1704,7 @@
       </c>
     </row>
     <row r="2" spans="2:3">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C2" t="s">
@@ -1612,67 +1712,67 @@
       </c>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="27" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20" t="s">
+      <c r="A4" s="27"/>
+      <c r="B4" s="27" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20" t="s">
+      <c r="A5" s="27"/>
+      <c r="B5" s="27" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20" t="s">
+      <c r="A6" s="27"/>
+      <c r="B6" s="27" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20" t="s">
+      <c r="A7" s="27"/>
+      <c r="B7" s="27" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20" t="s">
+      <c r="A8" s="27"/>
+      <c r="B8" s="27" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20" t="s">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20" t="s">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20" t="s">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20" t="s">
+      <c r="A12" s="27"/>
+      <c r="B12" s="27" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="20"/>
-      <c r="B13" s="7" t="s">
+      <c r="A13" s="27"/>
+      <c r="B13" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C13" t="s">
@@ -1680,8 +1780,8 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="20"/>
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="27"/>
+      <c r="B14" s="14" t="s">
         <v>33</v>
       </c>
       <c r="C14" t="s">
@@ -1689,14 +1789,14 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20" t="s">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="20"/>
-      <c r="B16" s="7" t="s">
+      <c r="A16" s="27"/>
+      <c r="B16" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C16" t="s">
@@ -1704,40 +1804,40 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20" t="s">
+      <c r="A17" s="27"/>
+      <c r="B17" s="27" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20" t="s">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="20"/>
-      <c r="B19" s="7" t="s">
+      <c r="A19" s="27"/>
+      <c r="B19" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="14" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="20"/>
+      <c r="A20" s="27"/>
       <c r="B20" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="20"/>
+      <c r="A21" s="27"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="20"/>
+      <c r="A22" s="27"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="28" t="s">
         <v>43</v>
       </c>
       <c r="B23" t="s">
@@ -1745,16 +1845,16 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="20"/>
+      <c r="A24" s="27"/>
       <c r="B24" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="20"/>
+      <c r="A25" s="27"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="28" t="s">
         <v>46</v>
       </c>
       <c r="B26" t="s">
@@ -1762,10 +1862,10 @@
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="20"/>
+      <c r="A27" s="27"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="20">
+      <c r="A28" s="27">
         <v>1103</v>
       </c>
       <c r="B28" t="s">
@@ -1773,10 +1873,10 @@
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="20"/>
+      <c r="A29" s="27"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="20">
+      <c r="A30" s="27">
         <v>1105</v>
       </c>
       <c r="B30" t="s">
@@ -1784,10 +1884,10 @@
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="20"/>
+      <c r="A31" s="27"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="20">
+      <c r="A32" s="27">
         <v>1105</v>
       </c>
       <c r="B32" t="s">
@@ -1795,10 +1895,10 @@
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="20"/>
+      <c r="A33" s="27"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="20">
+      <c r="A34" s="27">
         <v>1106</v>
       </c>
       <c r="B34" t="s">
@@ -1806,10 +1906,10 @@
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="20"/>
+      <c r="A35" s="27"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="20">
+      <c r="A36" s="27">
         <v>1106</v>
       </c>
       <c r="B36" t="s">
@@ -1817,37 +1917,37 @@
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="20"/>
+      <c r="A37" s="27"/>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="20"/>
+      <c r="A38" s="27"/>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="20"/>
+      <c r="A39" s="27"/>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="20"/>
+      <c r="A40" s="27"/>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="20"/>
+      <c r="A41" s="27"/>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="20"/>
+      <c r="A42" s="27"/>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="20"/>
+      <c r="A43" s="27"/>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="20"/>
+      <c r="A44" s="27"/>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="20"/>
+      <c r="A45" s="27"/>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="20"/>
+      <c r="A46" s="27"/>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="20"/>
+      <c r="A47" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1875,36 +1975,36 @@
   </cols>
   <sheetData>
     <row r="1" ht="20.25" spans="1:10">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
       <c r="D1" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="18"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="18"/>
+      <c r="J2" s="25"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="13" t="s">
         <v>56</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="J3" s="18"/>
+      <c r="J3" s="25"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
@@ -1916,29 +2016,29 @@
       <c r="C4" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="15">
         <v>0.05</v>
       </c>
-      <c r="J4" s="18"/>
+      <c r="J4" s="25"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="13" t="s">
         <v>61</v>
       </c>
       <c r="C5" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="J5" s="18"/>
+      <c r="F5" s="17"/>
+      <c r="J5" s="25"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
@@ -1950,108 +2050,108 @@
       <c r="C6" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="15">
         <v>0</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="J6" s="18"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="J6" s="25"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="13" t="s">
         <v>65</v>
       </c>
       <c r="C7" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="15">
         <v>0</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="J7" s="18"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="J7" s="25"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="12" t="s">
         <v>66</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="J8" s="18"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="J8" s="25"/>
     </row>
     <row r="9" ht="40.5" spans="1:10">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="J9" s="18"/>
+      <c r="J9" s="25"/>
     </row>
     <row r="10" ht="54" spans="1:10">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="J10" s="18"/>
+      <c r="J10" s="25"/>
     </row>
     <row r="11" ht="54" spans="1:10">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="J11" s="18"/>
+      <c r="J11" s="25"/>
     </row>
     <row r="12" ht="54" spans="1:10">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="J12" s="18"/>
+      <c r="J12" s="25"/>
     </row>
     <row r="13" spans="10:10">
-      <c r="J13" s="18"/>
+      <c r="J13" s="25"/>
     </row>
     <row r="14" ht="40.5" spans="1:10">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="J14" s="18"/>
+      <c r="J14" s="25"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2096,17 +2196,17 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="3" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="10" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2114,17 +2214,17 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="3" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="10" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2147,13 +2247,16 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <cols>
+    <col min="10" max="10" width="34.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" ht="25.5" spans="1:12">
       <c r="A1" s="1" t="s">
@@ -2171,10 +2274,8 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2">
-        <v>1</v>
-      </c>
+    <row r="2" ht="13" customHeight="1" spans="1:17">
+      <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>85</v>
       </c>
@@ -2185,59 +2286,100 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L2" s="7"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="9"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4">
+      <c r="B4" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5">
+      <c r="B5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="B2:I2"/>
+    <mergeCell ref="K2:L2"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/计划.xlsx
+++ b/计划.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97">
   <si>
     <t>时间</t>
   </si>
@@ -320,6 +320,12 @@
     <t>结果</t>
   </si>
   <si>
+    <t>月中结果</t>
+  </si>
+  <si>
+    <t>月末结果</t>
+  </si>
+  <si>
     <t>activemq ,rabbitmq kafka</t>
   </si>
   <si>
@@ -346,12 +352,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,7 +389,20 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -435,6 +454,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -458,6 +492,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -465,8 +523,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -480,93 +584,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -595,6 +614,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -607,12 +632,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -625,187 +644,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,6 +879,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -884,17 +918,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -914,35 +942,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -965,10 +984,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -977,137 +996,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1120,9 +1139,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1132,36 +1148,42 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1180,13 +1202,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1195,10 +1217,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1558,18 +1580,18 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" ht="18.75" spans="2:11">
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
     </row>
     <row r="2" spans="2:10">
       <c r="B2" t="s">
@@ -1590,15 +1612,15 @@
       <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="J3" s="22" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1624,12 +1646,12 @@
       <c r="H6" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B7">
@@ -1653,21 +1675,21 @@
       <c r="H7">
         <v>5</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="22">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1696,7 +1718,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C1" t="s">
@@ -1704,7 +1726,7 @@
       </c>
     </row>
     <row r="2" spans="2:3">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>21</v>
       </c>
       <c r="C2" t="s">
@@ -1712,67 +1734,67 @@
       </c>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="28" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27" t="s">
+      <c r="A4" s="28"/>
+      <c r="B4" s="28" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27" t="s">
+      <c r="A5" s="28"/>
+      <c r="B5" s="28" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27" t="s">
+      <c r="A6" s="28"/>
+      <c r="B6" s="28" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27" t="s">
+      <c r="A7" s="28"/>
+      <c r="B7" s="28" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27" t="s">
+      <c r="A8" s="28"/>
+      <c r="B8" s="28" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27" t="s">
+      <c r="A9" s="28"/>
+      <c r="B9" s="28" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27" t="s">
+      <c r="A10" s="28"/>
+      <c r="B10" s="28" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27" t="s">
+      <c r="A11" s="28"/>
+      <c r="B11" s="28" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27" t="s">
+      <c r="A12" s="28"/>
+      <c r="B12" s="28" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="27"/>
-      <c r="B13" s="14" t="s">
+      <c r="A13" s="28"/>
+      <c r="B13" s="15" t="s">
         <v>32</v>
       </c>
       <c r="C13" t="s">
@@ -1780,8 +1802,8 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="27"/>
-      <c r="B14" s="14" t="s">
+      <c r="A14" s="28"/>
+      <c r="B14" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C14" t="s">
@@ -1789,14 +1811,14 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27" t="s">
+      <c r="A15" s="28"/>
+      <c r="B15" s="28" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="27"/>
-      <c r="B16" s="14" t="s">
+      <c r="A16" s="28"/>
+      <c r="B16" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C16" t="s">
@@ -1804,40 +1826,40 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27" t="s">
+      <c r="A17" s="28"/>
+      <c r="B17" s="28" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27" t="s">
+      <c r="A18" s="28"/>
+      <c r="B18" s="28" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="27"/>
-      <c r="B19" s="14" t="s">
+      <c r="A19" s="28"/>
+      <c r="B19" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="15" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="27"/>
+      <c r="A20" s="28"/>
       <c r="B20" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="27"/>
+      <c r="A21" s="28"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="27"/>
+      <c r="A22" s="28"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="29" t="s">
         <v>43</v>
       </c>
       <c r="B23" t="s">
@@ -1845,16 +1867,16 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="27"/>
+      <c r="A24" s="28"/>
       <c r="B24" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="27"/>
+      <c r="A25" s="28"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="29" t="s">
         <v>46</v>
       </c>
       <c r="B26" t="s">
@@ -1862,10 +1884,10 @@
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="27"/>
+      <c r="A27" s="28"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="27">
+      <c r="A28" s="28">
         <v>1103</v>
       </c>
       <c r="B28" t="s">
@@ -1873,10 +1895,10 @@
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="27"/>
+      <c r="A29" s="28"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="27">
+      <c r="A30" s="28">
         <v>1105</v>
       </c>
       <c r="B30" t="s">
@@ -1884,10 +1906,10 @@
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="27"/>
+      <c r="A31" s="28"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="27">
+      <c r="A32" s="28">
         <v>1105</v>
       </c>
       <c r="B32" t="s">
@@ -1895,10 +1917,10 @@
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="27"/>
+      <c r="A33" s="28"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="27">
+      <c r="A34" s="28">
         <v>1106</v>
       </c>
       <c r="B34" t="s">
@@ -1906,10 +1928,10 @@
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="27"/>
+      <c r="A35" s="28"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="27">
+      <c r="A36" s="28">
         <v>1106</v>
       </c>
       <c r="B36" t="s">
@@ -1917,37 +1939,37 @@
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="27"/>
+      <c r="A37" s="28"/>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="27"/>
+      <c r="A38" s="28"/>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="27"/>
+      <c r="A39" s="28"/>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="27"/>
+      <c r="A40" s="28"/>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="27"/>
+      <c r="A41" s="28"/>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="27"/>
+      <c r="A42" s="28"/>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="27"/>
+      <c r="A43" s="28"/>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="27"/>
+      <c r="A44" s="28"/>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="27"/>
+      <c r="A45" s="28"/>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="27"/>
+      <c r="A46" s="28"/>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="27"/>
+      <c r="A47" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1975,36 +1997,36 @@
   </cols>
   <sheetData>
     <row r="1" ht="20.25" spans="1:10">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
       <c r="D1" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="25"/>
+      <c r="J1" s="26"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="25"/>
+      <c r="J2" s="26"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="J3" s="25"/>
+      <c r="J3" s="26"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
@@ -2016,29 +2038,29 @@
       <c r="C4" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="16">
         <v>0.05</v>
       </c>
-      <c r="J4" s="25"/>
+      <c r="J4" s="26"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>61</v>
       </c>
       <c r="C5" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="J5" s="25"/>
+      <c r="F5" s="18"/>
+      <c r="J5" s="26"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
@@ -2050,108 +2072,108 @@
       <c r="C6" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="16">
         <v>0</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="J6" s="25"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="J6" s="26"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>65</v>
       </c>
       <c r="C7" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="16">
         <v>0</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="J7" s="25"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="J7" s="26"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="13" t="s">
         <v>66</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="J8" s="25"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="J8" s="26"/>
     </row>
     <row r="9" ht="40.5" spans="1:10">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="J9" s="25"/>
+      <c r="J9" s="26"/>
     </row>
     <row r="10" ht="54" spans="1:10">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="J10" s="25"/>
+      <c r="J10" s="26"/>
     </row>
     <row r="11" ht="54" spans="1:10">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="J11" s="25"/>
+      <c r="J11" s="26"/>
     </row>
     <row r="12" ht="54" spans="1:10">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="J12" s="25"/>
+      <c r="J12" s="26"/>
     </row>
     <row r="13" spans="10:10">
-      <c r="J13" s="25"/>
+      <c r="J13" s="26"/>
     </row>
     <row r="14" ht="40.5" spans="1:10">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="J14" s="25"/>
+      <c r="J14" s="26"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2196,17 +2218,17 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="10" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="11" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2214,17 +2236,17 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="10" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="11" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2247,15 +2269,17 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
     <col min="10" max="10" width="34.625" customWidth="1"/>
+    <col min="11" max="11" width="11.625" customWidth="1"/>
+    <col min="12" max="12" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.5" spans="1:12">
@@ -2289,57 +2313,62 @@
       <c r="J2" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="9"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="L2" s="6"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="10"/>
+    </row>
+    <row r="3" ht="13" customHeight="1" spans="1:17">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" t="s">
+      <c r="L3" s="9" t="s">
         <v>89</v>
       </c>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
       <c r="J4" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C5" s="4"/>
@@ -2355,31 +2384,50 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" t="s">
-        <v>94</v>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A1:L1"/>
-    <mergeCell ref="B2:I2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="B3:I3"/>
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="B5:I5"/>
     <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="B2:I3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/计划.xlsx
+++ b/计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8520" activeTab="4"/>
+    <workbookView windowWidth="20385" windowHeight="8100" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="时间" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="9月" sheetId="3" r:id="rId3"/>
     <sheet name="10月" sheetId="4" r:id="rId4"/>
     <sheet name="11月" sheetId="5" r:id="rId5"/>
+    <sheet name="12月" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111">
   <si>
     <t>时间</t>
   </si>
@@ -83,12 +84,18 @@
     <t>完成时间</t>
   </si>
   <si>
+    <t>计划完成时间</t>
+  </si>
+  <si>
     <t xml:space="preserve"> taotao商城做一遍</t>
   </si>
   <si>
     <t xml:space="preserve"> spring 底层源码</t>
   </si>
   <si>
+    <t>12月底</t>
+  </si>
+  <si>
     <t xml:space="preserve"> springboot原理和使用</t>
   </si>
   <si>
@@ -177,6 +184,9 @@
   </si>
   <si>
     <t>HashMap currentMap</t>
+  </si>
+  <si>
+    <t>11月底</t>
   </si>
   <si>
     <t>9月计划</t>
@@ -338,13 +348,59 @@
     <t>看完记录知识点，过一遍有个概念</t>
   </si>
   <si>
+    <t>模糊</t>
+  </si>
+  <si>
     <t xml:space="preserve">redis 用法 注重缓存与spring boot的学习 </t>
   </si>
   <si>
     <t>落实细节，最后一次，以后不会再看</t>
   </si>
   <si>
-    <t xml:space="preserve"> 看完30% 即可 </t>
+    <t xml:space="preserve"> 看完30% 即可 （看完10节课）</t>
+  </si>
+  <si>
+    <t>5节课</t>
+  </si>
+  <si>
+    <t>配合redis</t>
+  </si>
+  <si>
+    <r>
+      <t>12月计划</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>注意做笔记</t>
+    </r>
+  </si>
+  <si>
+    <t>配和6 完成</t>
+  </si>
+  <si>
+    <t xml:space="preserve">完成 </t>
+  </si>
+  <si>
+    <t>会用</t>
+  </si>
+  <si>
+    <t>10节课</t>
+  </si>
+  <si>
+    <t>重点</t>
+  </si>
+  <si>
+    <t>了解会用</t>
+  </si>
+  <si>
+    <t>可适当调整</t>
   </si>
 </sst>
 </file>
@@ -353,9 +409,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -396,13 +452,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -448,7 +504,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -458,6 +514,97 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -470,37 +617,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -517,52 +633,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -570,22 +641,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -599,7 +655,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -644,13 +700,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -662,67 +874,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,97 +886,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -879,69 +941,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -976,6 +975,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -984,10 +1046,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -996,137 +1058,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1142,22 +1204,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
@@ -1213,6 +1281,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1574,24 +1645,24 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E3" sqref="E3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" ht="18.75" spans="2:11">
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
     </row>
     <row r="2" spans="2:10">
       <c r="B2" t="s">
@@ -1612,15 +1683,15 @@
       <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="24" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1646,12 +1717,12 @@
       <c r="H6" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B7">
@@ -1675,7 +1746,7 @@
       <c r="H7">
         <v>5</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J7" s="24">
         <v>20</v>
       </c>
     </row>
@@ -1705,271 +1776,329 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="32.375" customWidth="1"/>
     <col min="3" max="3" width="40.375" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="17" t="s">
         <v>19</v>
       </c>
       <c r="C1" t="s">
         <v>20</v>
       </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2" spans="2:3">
-      <c r="B2" s="15" t="s">
-        <v>21</v>
+      <c r="B2" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
-      <c r="B3" s="28" t="s">
-        <v>22</v>
+    <row r="3" spans="2:4">
+      <c r="B3" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28" t="s">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="30"/>
+      <c r="B6" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28" t="s">
-        <v>26</v>
+    <row r="7" spans="1:4">
+      <c r="A7" s="30"/>
+      <c r="B7" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28" t="s">
-        <v>28</v>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="30"/>
+      <c r="B9" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28" t="s">
+      <c r="A10" s="30"/>
+      <c r="B10" s="30" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="28"/>
-      <c r="B13" s="15" t="s">
+    <row r="11" spans="1:4">
+      <c r="A11" s="30"/>
+      <c r="B11" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="30"/>
+      <c r="B12" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="30"/>
+      <c r="B13" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="31" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="28"/>
-      <c r="B14" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28" t="s">
+      <c r="D13" s="31"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="30"/>
+      <c r="B14" s="17" t="s">
         <v>35</v>
       </c>
+      <c r="C14" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="31"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="30"/>
+      <c r="B15" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="28"/>
-      <c r="B16" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28" t="s">
+      <c r="A16" s="30"/>
+      <c r="B16" s="17" t="s">
         <v>38</v>
       </c>
+      <c r="C16" s="31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="30"/>
+      <c r="B17" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28" t="s">
-        <v>39</v>
+      <c r="A18" s="30"/>
+      <c r="B18" s="30" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="28"/>
-      <c r="B19" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>41</v>
+      <c r="A19" s="30"/>
+      <c r="B19" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="28"/>
+      <c r="A20" s="30"/>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="28"/>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="28"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="29" t="s">
-        <v>43</v>
+      <c r="A21" s="30"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="30"/>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="32" t="s">
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="28"/>
+      <c r="A24" s="30"/>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="28"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="29" t="s">
-        <v>46</v>
+      <c r="A25" s="30"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="32" t="s">
+        <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="D26" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="28"/>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="28">
+      <c r="A27" s="30"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="30">
         <v>1103</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="D28" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="28"/>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="28">
+      <c r="A29" s="30"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="30">
         <v>1105</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="28"/>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="28">
+      <c r="A31" s="30"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="30">
         <v>1105</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="D32" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="28"/>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="28">
+      <c r="A33" s="30"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="30">
         <v>1106</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="D34" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="28"/>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="28">
+      <c r="A35" s="30"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="30">
         <v>1106</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="D36" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="28"/>
+      <c r="A37" s="30"/>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="28"/>
+      <c r="A38" s="30"/>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="28"/>
+      <c r="A39" s="30"/>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="28"/>
+      <c r="A40" s="30"/>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="28"/>
+      <c r="A41" s="30"/>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="28"/>
+      <c r="A42" s="30"/>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="28"/>
+      <c r="A43" s="30"/>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="28"/>
+      <c r="A44" s="30"/>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="28"/>
+      <c r="A45" s="30"/>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="28"/>
+      <c r="A46" s="30"/>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="28"/>
+      <c r="A47" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1997,183 +2126,183 @@
   </cols>
   <sheetData>
     <row r="1" ht="20.25" spans="1:10">
-      <c r="A1" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="A1" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
       <c r="D1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" s="26"/>
+        <v>57</v>
+      </c>
+      <c r="J1" s="28"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="J2" s="26"/>
+      <c r="A2" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="28"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>56</v>
+      <c r="B3" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="J3" s="26"/>
+        <v>60</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="28"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="16">
+        <v>63</v>
+      </c>
+      <c r="D4" s="18">
         <v>0.05</v>
       </c>
-      <c r="J4" s="26"/>
+      <c r="J4" s="28"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>61</v>
+      <c r="B5" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="18"/>
-      <c r="J5" s="26"/>
+        <v>60</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="20"/>
+      <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="16">
+        <v>63</v>
+      </c>
+      <c r="D6" s="18">
         <v>0</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="J6" s="26"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="J6" s="28"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>65</v>
+      <c r="B7" s="16" t="s">
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="16">
+        <v>60</v>
+      </c>
+      <c r="D7" s="18">
         <v>0</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="J7" s="26"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="J7" s="28"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="13" t="s">
-        <v>66</v>
+      <c r="A8" s="15" t="s">
+        <v>69</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="J8" s="26"/>
+        <v>70</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="J8" s="28"/>
     </row>
     <row r="9" ht="40.5" spans="1:10">
-      <c r="A9" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="J9" s="26"/>
+      <c r="A9" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" s="28"/>
     </row>
     <row r="10" ht="54" spans="1:10">
-      <c r="A10" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="J10" s="26"/>
+      <c r="A10" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" s="28"/>
     </row>
     <row r="11" ht="54" spans="1:10">
-      <c r="A11" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="J11" s="26"/>
+      <c r="A11" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="J11" s="28"/>
     </row>
     <row r="12" ht="54" spans="1:10">
-      <c r="A12" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="J12" s="26"/>
+      <c r="A12" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" s="28"/>
     </row>
     <row r="13" spans="10:10">
-      <c r="J13" s="26"/>
+      <c r="J13" s="28"/>
     </row>
     <row r="14" ht="40.5" spans="1:10">
-      <c r="A14" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="J14" s="26"/>
+      <c r="A14" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="J14" s="28"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2200,7 +2329,7 @@
   <sheetData>
     <row r="1" ht="25.5" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2219,7 +2348,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -2228,8 +2357,8 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="11" t="s">
-        <v>82</v>
+      <c r="J2" s="13" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2237,7 +2366,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -2246,8 +2375,8 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="11" t="s">
-        <v>82</v>
+      <c r="J3" s="13" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -2269,13 +2398,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="10" max="10" width="34.625" customWidth="1"/>
     <col min="11" max="11" width="11.625" customWidth="1"/>
@@ -2284,7 +2413,7 @@
   <sheetData>
     <row r="1" ht="25.5" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2301,7 +2430,7 @@
     <row r="2" ht="13" customHeight="1" spans="1:17">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -2311,17 +2440,17 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="10"/>
+        <v>89</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="L2" s="7"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="12"/>
     </row>
     <row r="3" ht="13" customHeight="1" spans="1:17">
       <c r="A3" s="1"/>
@@ -2335,23 +2464,23 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-    </row>
-    <row r="4" spans="1:10">
+        <v>92</v>
+      </c>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -2361,15 +2490,18 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>94</v>
+      </c>
+      <c r="K4" s="10">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -2379,15 +2511,18 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>96</v>
+      </c>
+      <c r="K5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -2397,15 +2532,18 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>99</v>
+      </c>
+      <c r="K6" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -2415,17 +2553,263 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" t="s">
-        <v>96</v>
+        <v>100</v>
+      </c>
+      <c r="K7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="B5:I5"/>
     <mergeCell ref="B6:I6"/>
     <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="B2:I3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="10" max="10" width="45.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25.5" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" ht="16" customHeight="1" spans="1:12">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" ht="14" customHeight="1" spans="1:12">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K4" s="10"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" t="s">
+        <v>106</v>
+      </c>
+      <c r="K6" s="10"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6">
+      <c r="C15" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="C15:F15"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="B2:I3"/>
   </mergeCells>

--- a/计划.xlsx
+++ b/计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8100" activeTab="5"/>
+    <workbookView windowWidth="20385" windowHeight="8100" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="时间" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="10月" sheetId="4" r:id="rId4"/>
     <sheet name="11月" sheetId="5" r:id="rId5"/>
     <sheet name="12月" sheetId="6" r:id="rId6"/>
+    <sheet name="1月" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115">
   <si>
     <t>时间</t>
   </si>
@@ -342,6 +343,9 @@
     <t>做记录，会用  原理</t>
   </si>
   <si>
+    <t>kafka未看</t>
+  </si>
+  <si>
     <t>springboot 微信点餐系统，</t>
   </si>
   <si>
@@ -363,10 +367,21 @@
     <t>5节课</t>
   </si>
   <si>
+    <t>完成 7节课</t>
+  </si>
+  <si>
     <t>配合redis</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>12月计划</t>
     </r>
     <r>
@@ -402,16 +417,22 @@
   <si>
     <t>可适当调整</t>
   </si>
+  <si>
+    <t>1月计划</t>
+  </si>
+  <si>
+    <t>中期</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -504,7 +525,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -517,8 +561,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -549,14 +601,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -564,29 +641,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -600,38 +654,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -639,9 +661,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -682,6 +703,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -694,13 +727,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="-0.25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,7 +823,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,25 +865,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,37 +883,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,91 +901,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -941,26 +962,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -971,15 +992,6 @@
         <color theme="4"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1025,16 +1037,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1046,10 +1067,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1058,155 +1079,164 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1231,6 +1261,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1240,10 +1279,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
@@ -1264,10 +1300,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1281,9 +1317,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1651,18 +1684,18 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" ht="18.75" spans="2:11">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
     </row>
     <row r="2" spans="2:10">
       <c r="B2" t="s">
@@ -1683,15 +1716,15 @@
       <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="21" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="29" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1717,12 +1750,12 @@
       <c r="H6" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="21" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B7">
@@ -1746,7 +1779,7 @@
       <c r="H7">
         <v>5</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="29">
         <v>20</v>
       </c>
     </row>
@@ -1778,8 +1811,8 @@
   <sheetPr/>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1809,23 +1842,22 @@
       </c>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C3"/>
       <c r="D3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30" t="s">
+      <c r="A4" s="35"/>
+      <c r="B4" s="35" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30" t="s">
+      <c r="A5" s="35"/>
+      <c r="B5" s="35" t="s">
         <v>26</v>
       </c>
       <c r="D5" t="s">
@@ -1833,8 +1865,8 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30" t="s">
+      <c r="A6" s="35"/>
+      <c r="B6" s="35" t="s">
         <v>27</v>
       </c>
       <c r="D6" t="s">
@@ -1842,8 +1874,8 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30" t="s">
+      <c r="A7" s="35"/>
+      <c r="B7" s="35" t="s">
         <v>28</v>
       </c>
       <c r="D7" t="s">
@@ -1851,14 +1883,14 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30" t="s">
+      <c r="A8" s="35"/>
+      <c r="B8" s="35" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30" t="s">
+      <c r="A9" s="35"/>
+      <c r="B9" s="35" t="s">
         <v>30</v>
       </c>
       <c r="D9" t="s">
@@ -1866,14 +1898,14 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30" t="s">
+      <c r="A10" s="35"/>
+      <c r="B10" s="35" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30" t="s">
+      <c r="A11" s="35"/>
+      <c r="B11" s="35" t="s">
         <v>32</v>
       </c>
       <c r="D11" t="s">
@@ -1881,8 +1913,8 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30" t="s">
+      <c r="A12" s="35"/>
+      <c r="B12" s="35" t="s">
         <v>33</v>
       </c>
       <c r="D12" t="s">
@@ -1890,28 +1922,28 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="30"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="31"/>
+      <c r="D13" s="17"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="30"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="31"/>
+      <c r="D14" s="17"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30" t="s">
+      <c r="A15" s="35"/>
+      <c r="B15" s="35" t="s">
         <v>37</v>
       </c>
       <c r="D15" t="s">
@@ -1919,17 +1951,17 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="30"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="17" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30" t="s">
+      <c r="A17" s="35"/>
+      <c r="B17" s="35" t="s">
         <v>40</v>
       </c>
       <c r="D17" t="s">
@@ -1937,13 +1969,13 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30" t="s">
+      <c r="A18" s="35"/>
+      <c r="B18" s="35" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="30"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="17" t="s">
         <v>42</v>
       </c>
@@ -1952,22 +1984,22 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="30"/>
+      <c r="A20" s="35"/>
       <c r="B20" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="30"/>
+      <c r="A21" s="35"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="30"/>
+      <c r="A22" s="35"/>
       <c r="D22" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="36" t="s">
         <v>45</v>
       </c>
       <c r="B23" t="s">
@@ -1978,16 +2010,16 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="30"/>
+      <c r="A24" s="35"/>
       <c r="B24" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="30"/>
+      <c r="A25" s="35"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="36" t="s">
         <v>48</v>
       </c>
       <c r="B26" t="s">
@@ -1998,10 +2030,10 @@
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="30"/>
+      <c r="A27" s="35"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="30">
+      <c r="A28" s="35">
         <v>1103</v>
       </c>
       <c r="B28" t="s">
@@ -2012,10 +2044,10 @@
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="30"/>
+      <c r="A29" s="35"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="30">
+      <c r="A30" s="35">
         <v>1105</v>
       </c>
       <c r="B30" t="s">
@@ -2026,10 +2058,10 @@
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="30"/>
+      <c r="A31" s="35"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="30">
+      <c r="A32" s="35">
         <v>1105</v>
       </c>
       <c r="B32" t="s">
@@ -2040,10 +2072,10 @@
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="30"/>
+      <c r="A33" s="35"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="30">
+      <c r="A34" s="35">
         <v>1106</v>
       </c>
       <c r="B34" t="s">
@@ -2054,10 +2086,10 @@
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="30"/>
+      <c r="A35" s="35"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="30">
+      <c r="A36" s="35">
         <v>1106</v>
       </c>
       <c r="B36" t="s">
@@ -2068,37 +2100,37 @@
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="30"/>
+      <c r="A37" s="35"/>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="30"/>
+      <c r="A38" s="35"/>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="30"/>
+      <c r="A39" s="35"/>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="30"/>
+      <c r="A40" s="35"/>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="30"/>
+      <c r="A41" s="35"/>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="30"/>
+      <c r="A42" s="35"/>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="30"/>
+      <c r="A43" s="35"/>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="30"/>
+      <c r="A44" s="35"/>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="30"/>
+      <c r="A45" s="35"/>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="30"/>
+      <c r="A46" s="35"/>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="30"/>
+      <c r="A47" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2113,7 +2145,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2126,27 +2158,27 @@
   </cols>
   <sheetData>
     <row r="1" ht="20.25" spans="1:10">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
       <c r="D1" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="28"/>
+      <c r="J1" s="33"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="28"/>
+      <c r="J2" s="33"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="22" t="s">
         <v>59</v>
       </c>
       <c r="C3" t="s">
@@ -2155,7 +2187,7 @@
       <c r="D3" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="J3" s="28"/>
+      <c r="J3" s="33"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
@@ -2167,29 +2199,29 @@
       <c r="C4" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="23">
         <v>0.05</v>
       </c>
-      <c r="J4" s="28"/>
+      <c r="J4" s="33"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="22" t="s">
         <v>64</v>
       </c>
       <c r="C5" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="J5" s="28"/>
+      <c r="F5" s="25"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
@@ -2201,108 +2233,108 @@
       <c r="C6" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="23">
         <v>0</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="J6" s="28"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="J6" s="33"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="22" t="s">
         <v>68</v>
       </c>
       <c r="C7" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="23">
         <v>0</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="J7" s="28"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="J7" s="33"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="21" t="s">
         <v>69</v>
       </c>
       <c r="B8" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="J8" s="28"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="J8" s="33"/>
     </row>
     <row r="9" ht="40.5" spans="1:10">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="J9" s="28"/>
+      <c r="J9" s="33"/>
     </row>
     <row r="10" ht="54" spans="1:10">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="J10" s="28"/>
+      <c r="J10" s="33"/>
     </row>
     <row r="11" ht="54" spans="1:10">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="J11" s="28"/>
+      <c r="J11" s="33"/>
     </row>
     <row r="12" ht="54" spans="1:10">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="J12" s="28"/>
+      <c r="J12" s="33"/>
     </row>
     <row r="13" spans="10:10">
-      <c r="J13" s="28"/>
+      <c r="J13" s="33"/>
     </row>
     <row r="14" ht="40.5" spans="1:10">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="J14" s="28"/>
+      <c r="J14" s="33"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2322,7 +2354,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:I4"/>
+      <selection activeCell="A1" sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -2357,7 +2389,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="19" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2375,7 +2407,7 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="19" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2400,8 +2432,8 @@
   <sheetPr/>
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2429,79 +2461,82 @@
     </row>
     <row r="2" ht="13" customHeight="1" spans="1:17">
       <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="12"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="15"/>
     </row>
     <row r="3" ht="13" customHeight="1" spans="1:17">
       <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="8" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
       <c r="J4" t="s">
         <v>94</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="13">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -2511,34 +2546,40 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>98</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="B6" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
       <c r="J6" t="s">
-        <v>99</v>
-      </c>
-      <c r="K6" s="10">
+        <v>100</v>
+      </c>
+      <c r="K6" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2553,28 +2594,34 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>102</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>5</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
       <c r="J9" t="s">
-        <v>102</v>
+        <v>104</v>
+      </c>
+      <c r="L9" s="18">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -2599,8 +2646,8 @@
   <sheetPr/>
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2610,7 +2657,7 @@
   <sheetData>
     <row r="1" ht="25.5" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2626,39 +2673,39 @@
     </row>
     <row r="2" ht="16" customHeight="1" spans="1:12">
       <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="L2" s="7"/>
+      <c r="L2" s="10"/>
     </row>
     <row r="3" ht="14" customHeight="1" spans="1:12">
       <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="8" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="12" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2666,20 +2713,20 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
       <c r="J4" t="s">
-        <v>104</v>
-      </c>
-      <c r="K4" s="10"/>
+        <v>106</v>
+      </c>
+      <c r="K4" s="13"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
@@ -2696,27 +2743,27 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
       <c r="J6" t="s">
-        <v>106</v>
-      </c>
-      <c r="K6" s="10"/>
+        <v>108</v>
+      </c>
+      <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
@@ -2733,7 +2780,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2769,37 +2816,52 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
       <c r="J10" t="s">
-        <v>109</v>
-      </c>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
     </row>
     <row r="15" spans="3:6">
-      <c r="C15" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+      <c r="C15" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="B4:I4"/>
@@ -2809,6 +2871,7 @@
     <mergeCell ref="B8:I8"/>
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B11:I11"/>
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="B2:I3"/>
@@ -2816,4 +2879,176 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" ht="25.5" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="2:11">
+      <c r="B2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="9" spans="6:14">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="6:14">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="6:14">
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="6:14">
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="F9:N9"/>
+    <mergeCell ref="F10:N10"/>
+    <mergeCell ref="F11:N11"/>
+    <mergeCell ref="F12:N12"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/计划.xlsx
+++ b/计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8100" activeTab="4"/>
+    <workbookView windowWidth="20385" windowHeight="8520" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="时间" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113">
   <si>
     <t>时间</t>
   </si>
@@ -152,9 +152,6 @@
   </si>
   <si>
     <t>11月 看了  OKHttp   httpURLConnection</t>
-  </si>
-  <si>
-    <t>mina netty</t>
   </si>
   <si>
     <t>0919</t>
@@ -400,9 +397,6 @@
     <t>配和6 完成</t>
   </si>
   <si>
-    <t xml:space="preserve">完成 </t>
-  </si>
-  <si>
     <t>会用</t>
   </si>
   <si>
@@ -412,7 +406,7 @@
     <t>重点</t>
   </si>
   <si>
-    <t>了解会用</t>
+    <t>了解，下个月会用</t>
   </si>
   <si>
     <t>可适当调整</t>
@@ -430,9 +424,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -525,6 +519,113 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -539,23 +640,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -569,105 +662,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
@@ -697,6 +691,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -709,12 +709,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -727,61 +721,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,121 +895,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,56 +956,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1031,7 +975,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1054,8 +1013,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1067,10 +1061,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1079,137 +1073,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1220,15 +1214,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1249,22 +1234,28 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
@@ -1282,9 +1273,6 @@
     <xf numFmtId="9" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1300,10 +1288,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1678,24 +1666,24 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:G3"/>
+      <selection activeCell="A9" sqref="A9:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" ht="18.75" spans="2:11">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
     </row>
     <row r="2" spans="2:10">
       <c r="B2" t="s">
@@ -1716,15 +1704,15 @@
       <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="29" t="s">
+      <c r="J3" s="27" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1750,12 +1738,12 @@
       <c r="H6" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="21" t="s">
+      <c r="J6" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B7">
@@ -1779,21 +1767,21 @@
       <c r="H7">
         <v>5</v>
       </c>
-      <c r="J7" s="29">
+      <c r="J7" s="27">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1811,8 +1799,8 @@
   <sheetPr/>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1823,7 +1811,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C1" t="s">
@@ -1834,7 +1822,7 @@
       </c>
     </row>
     <row r="2" spans="2:3">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="13" t="s">
         <v>22</v>
       </c>
       <c r="C2" t="s">
@@ -1842,7 +1830,7 @@
       </c>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D3" t="s">
@@ -1850,14 +1838,14 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35" t="s">
+      <c r="A4" s="33"/>
+      <c r="B4" s="33" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35" t="s">
+      <c r="A5" s="33"/>
+      <c r="B5" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D5" t="s">
@@ -1865,8 +1853,8 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35" t="s">
+      <c r="A6" s="33"/>
+      <c r="B6" s="33" t="s">
         <v>27</v>
       </c>
       <c r="D6" t="s">
@@ -1874,8 +1862,8 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35" t="s">
+      <c r="A7" s="33"/>
+      <c r="B7" s="33" t="s">
         <v>28</v>
       </c>
       <c r="D7" t="s">
@@ -1883,14 +1871,14 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35" t="s">
+      <c r="A8" s="33"/>
+      <c r="B8" s="33" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35" t="s">
+      <c r="A9" s="33"/>
+      <c r="B9" s="33" t="s">
         <v>30</v>
       </c>
       <c r="D9" t="s">
@@ -1898,23 +1886,23 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35" t="s">
+      <c r="A10" s="33"/>
+      <c r="B10" s="33" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="35"/>
-      <c r="B11" s="35" t="s">
+      <c r="A11" s="33"/>
+      <c r="B11" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35" t="s">
+      <c r="A12" s="33"/>
+      <c r="B12" s="33" t="s">
         <v>33</v>
       </c>
       <c r="D12" t="s">
@@ -1922,28 +1910,28 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="35"/>
-      <c r="B13" s="17" t="s">
+      <c r="A13" s="33"/>
+      <c r="B13" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="17"/>
+      <c r="D13" s="13"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="35"/>
-      <c r="B14" s="17" t="s">
+      <c r="A14" s="33"/>
+      <c r="B14" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="17"/>
+      <c r="D14" s="13"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35" t="s">
+      <c r="A15" s="33"/>
+      <c r="B15" s="33" t="s">
         <v>37</v>
       </c>
       <c r="D15" t="s">
@@ -1951,17 +1939,17 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="35"/>
-      <c r="B16" s="17" t="s">
+      <c r="A16" s="33"/>
+      <c r="B16" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="13" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35" t="s">
+      <c r="A17" s="33"/>
+      <c r="B17" s="33" t="s">
         <v>40</v>
       </c>
       <c r="D17" t="s">
@@ -1969,168 +1957,165 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35" t="s">
+      <c r="A18" s="33"/>
+      <c r="B18" s="33" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="35"/>
-      <c r="B19" s="17" t="s">
+      <c r="A19" s="33"/>
+      <c r="B19" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="35"/>
-      <c r="B20" t="s">
-        <v>44</v>
-      </c>
+    <row r="20" spans="1:1">
+      <c r="A20" s="33"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="35"/>
+      <c r="A21" s="33"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="35"/>
+      <c r="A22" s="33"/>
       <c r="D22" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
         <v>45</v>
-      </c>
-      <c r="B23" t="s">
-        <v>46</v>
       </c>
       <c r="D23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="35"/>
+      <c r="A24" s="33"/>
       <c r="B24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="33"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="34" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="35"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="36" t="s">
+      <c r="B26" t="s">
         <v>48</v>
-      </c>
-      <c r="B26" t="s">
-        <v>49</v>
       </c>
       <c r="D26" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="35"/>
+      <c r="A27" s="33"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="35">
+      <c r="A28" s="33">
         <v>1103</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D28" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="35"/>
+      <c r="A29" s="33"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="35">
+      <c r="A30" s="33">
         <v>1105</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D30" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="35"/>
+      <c r="A31" s="33"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="35">
+      <c r="A32" s="33">
         <v>1105</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D32" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="35"/>
+      <c r="A33" s="33"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="35">
+      <c r="A34" s="33">
         <v>1106</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D34" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="35"/>
+      <c r="A35" s="33"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="35">
+      <c r="A36" s="33">
         <v>1106</v>
       </c>
       <c r="B36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" t="s">
         <v>54</v>
       </c>
-      <c r="D36" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="35"/>
+      <c r="A37" s="33"/>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="35"/>
+      <c r="A38" s="33"/>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="35"/>
+      <c r="A39" s="33"/>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="35"/>
+      <c r="A40" s="33"/>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="35"/>
+      <c r="A41" s="33"/>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="35"/>
+      <c r="A42" s="33"/>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="35"/>
+      <c r="A43" s="33"/>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="35"/>
+      <c r="A44" s="33"/>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="35"/>
+      <c r="A45" s="33"/>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="35"/>
+      <c r="A46" s="33"/>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="35"/>
+      <c r="A47" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2144,7 +2129,7 @@
   <sheetPr/>
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -2158,183 +2143,183 @@
   </cols>
   <sheetData>
     <row r="1" ht="20.25" spans="1:10">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" t="s">
+      <c r="J1" s="31"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="33"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" s="33"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
         <v>59</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="J3" s="33"/>
+      <c r="J3" s="31"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
         <v>62</v>
       </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="23">
+      <c r="D4" s="22">
         <v>0.05</v>
       </c>
-      <c r="J4" s="33"/>
+      <c r="J4" s="31"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="24" t="s">
+      <c r="E5" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" s="25"/>
-      <c r="J5" s="33"/>
+      <c r="F5" s="23"/>
+      <c r="J5" s="31"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="23">
+        <v>62</v>
+      </c>
+      <c r="D6" s="22">
         <v>0</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="J6" s="33"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="J6" s="31"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="22">
+        <v>0</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="J7" s="31"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="23">
-        <v>0</v>
-      </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="J7" s="33"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="21" t="s">
+      <c r="B8" t="s">
         <v>69</v>
       </c>
-      <c r="B8" t="s">
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="J8" s="31"/>
+    </row>
+    <row r="9" ht="40.5" spans="1:10">
+      <c r="A9" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="J8" s="33"/>
-    </row>
-    <row r="9" ht="40.5" spans="1:10">
-      <c r="A9" s="26" t="s">
+      <c r="B9" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="J9" s="31"/>
+    </row>
+    <row r="10" ht="54" spans="1:10">
+      <c r="A10" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="J9" s="33"/>
-    </row>
-    <row r="10" ht="54" spans="1:10">
-      <c r="A10" s="26" t="s">
+      <c r="B10" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="D10" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="J10" s="31"/>
+    </row>
+    <row r="11" ht="54" spans="1:10">
+      <c r="A11" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="J10" s="33"/>
-    </row>
-    <row r="11" ht="54" spans="1:10">
-      <c r="A11" s="29" t="s">
+      <c r="B11" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="D11" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="J11" s="31"/>
+    </row>
+    <row r="12" ht="54" spans="1:10">
+      <c r="A12" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="J11" s="33"/>
-    </row>
-    <row r="12" ht="54" spans="1:10">
-      <c r="A12" s="29" t="s">
+      <c r="B12" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="J12" s="31"/>
+    </row>
+    <row r="13" spans="10:10">
+      <c r="J13" s="31"/>
+    </row>
+    <row r="14" ht="40.5" spans="1:10">
+      <c r="A14" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="J12" s="33"/>
-    </row>
-    <row r="13" spans="10:10">
-      <c r="J13" s="33"/>
-    </row>
-    <row r="14" ht="40.5" spans="1:10">
-      <c r="A14" s="30" t="s">
+      <c r="B14" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="B14" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="J14" s="33"/>
+      <c r="J14" s="31"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2361,7 +2346,7 @@
   <sheetData>
     <row r="1" ht="25.5" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2379,36 +2364,36 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="18" t="s">
         <v>84</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="19" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="19" t="s">
+      <c r="B3" s="2" t="s">
         <v>85</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="18" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -2432,8 +2417,8 @@
   <sheetPr/>
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2445,7 +2430,7 @@
   <sheetData>
     <row r="1" ht="25.5" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2461,23 +2446,23 @@
     </row>
     <row r="2" ht="13" customHeight="1" spans="1:17">
       <c r="A2" s="1"/>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="K2" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="L2" s="10"/>
+      <c r="L2" s="7"/>
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
       <c r="O2" s="14"/>
@@ -2486,20 +2471,20 @@
     </row>
     <row r="3" ht="13" customHeight="1" spans="1:17">
       <c r="A3" s="1"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="11" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L3" s="9" t="s">
         <v>91</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>92</v>
       </c>
       <c r="M3" s="15"/>
       <c r="N3" s="15"/>
@@ -2511,116 +2496,116 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" t="s">
+      <c r="K4" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="L4" s="17" t="s">
         <v>94</v>
-      </c>
-      <c r="K4" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="L4" s="16" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>97</v>
       </c>
-      <c r="K5" t="s">
-        <v>98</v>
-      </c>
-      <c r="L5" s="17" t="s">
-        <v>85</v>
+      <c r="L5" s="13" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K6" s="13">
+      <c r="K6" s="16">
         <v>0</v>
       </c>
-      <c r="L6" s="17" t="s">
-        <v>85</v>
+      <c r="L6" s="13" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
       <c r="J7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K7" t="s">
         <v>101</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" s="13" t="s">
         <v>102</v>
-      </c>
-      <c r="L7" s="17" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9">
         <v>5</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="B9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
       <c r="J9" t="s">
-        <v>104</v>
-      </c>
-      <c r="L9" s="18">
+        <v>103</v>
+      </c>
+      <c r="L9" s="12">
         <v>0.5</v>
       </c>
     </row>
@@ -2646,18 +2631,20 @@
   <sheetPr/>
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
+    <col min="8" max="8" width="6.5" customWidth="1"/>
+    <col min="9" max="9" width="7.25" customWidth="1"/>
     <col min="10" max="10" width="45.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.5" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2673,177 +2660,185 @@
     </row>
     <row r="2" ht="16" customHeight="1" spans="1:12">
       <c r="A2" s="1"/>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="K2" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="L2" s="10"/>
+      <c r="L2" s="7"/>
     </row>
     <row r="3" ht="14" customHeight="1" spans="1:12">
       <c r="A3" s="1"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="11" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L3" s="9" t="s">
         <v>91</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
+      <c r="B4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
       <c r="J4" t="s">
-        <v>106</v>
-      </c>
-      <c r="K4" s="13"/>
-    </row>
-    <row r="5" spans="1:10">
+        <v>105</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
       <c r="J5" t="s">
-        <v>107</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="K5" s="11"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
       <c r="J6" t="s">
-        <v>108</v>
-      </c>
-      <c r="K6" s="13"/>
-    </row>
-    <row r="7" spans="1:10">
+        <v>106</v>
+      </c>
+      <c r="K6" s="12"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
       <c r="J7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>107</v>
+      </c>
+      <c r="K7" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
       <c r="J8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>84</v>
+      </c>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
       <c r="J9" t="s">
-        <v>110</v>
+        <v>108</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="B10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
       <c r="J10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -2853,12 +2848,12 @@
       <c r="I11" s="2"/>
     </row>
     <row r="15" spans="3:6">
-      <c r="C15" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="C15" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -2887,14 +2882,14 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" ht="25.5" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2910,107 +2905,107 @@
     </row>
     <row r="2" spans="2:11">
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="G2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
       <c r="K2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
     </row>
     <row r="9" spans="6:14">
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
     </row>
     <row r="10" spans="6:14">
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
     </row>
     <row r="11" spans="6:14">
       <c r="F11" s="2"/>
